--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value559.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value559.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4172458819517891</v>
+        <v>1.192668557167053</v>
       </c>
       <c r="B1">
-        <v>0.6250466276417143</v>
+        <v>1.374383211135864</v>
       </c>
       <c r="C1">
-        <v>1.308722714760216</v>
+        <v>1.732284545898438</v>
       </c>
       <c r="D1">
-        <v>3.437532800152987</v>
+        <v>3.419886827468872</v>
       </c>
       <c r="E1">
-        <v>2.51814346010277</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
